--- a/public/GuestsList/data_tamu_smti.xlsx
+++ b/public/GuestsList/data_tamu_smti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -53,16 +53,13 @@
     <t>wdwdwdw</t>
   </si>
   <si>
-    <t>Thursday, 05-12-2024 19:21:10</t>
-  </si>
-  <si>
-    <t>Thursday, 05-12-2024 19:14:39</t>
-  </si>
-  <si>
-    <t>Thursday, 05-12-2024 19:13:07</t>
-  </si>
-  <si>
-    <t>Thursday, 05-12-2024 19:09:52</t>
+    <t>Friday, 06-12-2024 01:18:09</t>
+  </si>
+  <si>
+    <t>Friday, 06-12-2024 01:14:47</t>
+  </si>
+  <si>
+    <t>Friday, 06-12-2024 01:12:40</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:H1"/>
@@ -485,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -511,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -537,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -563,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -589,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -607,7 +604,7 @@
         <v>4242424242</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -615,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -641,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -659,7 +656,7 @@
         <v>4242424242</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -667,25 +664,207 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4242424242</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4242424242</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
